--- a/Databases/japanese_words.xlsx
+++ b/Databases/japanese_words.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer-1\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC93222-2393-4FD9-8168-046AC04E448A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF736AA-4C17-4672-8DDC-AB31DC1A5D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="8805" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16530" yWindow="7650" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -29,43 +29,6 @@
   </si>
   <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>후회</t>
-  </si>
-  <si>
-    <t>고령</t>
-  </si>
-  <si>
-    <t>비밀</t>
-  </si>
-  <si>
-    <t>번호</t>
-  </si>
-  <si>
-    <t>전화</t>
-  </si>
-  <si>
-    <t>[명사] regret, [동사] regret, (formal) repent, be sorry (for), feel regret (for)</t>
-  </si>
-  <si>
-    <t>1. aged  
- 2. old  
- 3. elderly</t>
-  </si>
-  <si>
-    <t>1. secret  
- 2. confidential  
- 3. classified</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>phone call, (telephone) call; (전화기) telephone, phone, call (up), phone, (Brit) ring</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
   </si>
 </sst>
 </file>
@@ -467,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,61 +454,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
